--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ncam1</t>
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H2">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>3.991582924469334</v>
+        <v>10.43510260686133</v>
       </c>
       <c r="R2">
-        <v>35.924246320224</v>
+        <v>93.915923461752</v>
       </c>
       <c r="S2">
-        <v>0.0005656794736692552</v>
+        <v>0.004712050086129493</v>
       </c>
       <c r="T2">
-        <v>0.0005656794736692552</v>
+        <v>0.004712050086129493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H3">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I3">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J3">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>42.94496522317777</v>
+        <v>62.68118774744167</v>
       </c>
       <c r="R3">
-        <v>386.5046870086</v>
+        <v>564.130689726975</v>
       </c>
       <c r="S3">
-        <v>0.006086078075760221</v>
+        <v>0.02830416788904664</v>
       </c>
       <c r="T3">
-        <v>0.006086078075760221</v>
+        <v>0.02830416788904664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H4">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I4">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J4">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.1800000333715555</v>
+        <v>0.3306136170353333</v>
       </c>
       <c r="R4">
-        <v>1.620000300344</v>
+        <v>2.975522553318</v>
       </c>
       <c r="S4">
-        <v>2.550925937524067E-05</v>
+        <v>0.0001492910976843284</v>
       </c>
       <c r="T4">
-        <v>2.550925937524067E-05</v>
+        <v>0.0001492910976843285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H5">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I5">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J5">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>29.902037813352</v>
+        <v>10.20317810207033</v>
       </c>
       <c r="R5">
-        <v>269.118340320168</v>
+        <v>91.82860291863301</v>
       </c>
       <c r="S5">
-        <v>0.00423765942784313</v>
+        <v>0.004607322808981552</v>
       </c>
       <c r="T5">
-        <v>0.00423765942784313</v>
+        <v>0.004607322808981552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H6">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I6">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J6">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.5202267485893333</v>
+        <v>0.7534204078543334</v>
       </c>
       <c r="R6">
-        <v>4.682040737304</v>
+        <v>6.780783670689001</v>
       </c>
       <c r="S6">
-        <v>7.372553668537544E-05</v>
+        <v>0.0003402127254012257</v>
       </c>
       <c r="T6">
-        <v>7.372553668537544E-05</v>
+        <v>0.0003402127254012257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H7">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I7">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J7">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.8358789085724445</v>
+        <v>0.9840119617276667</v>
       </c>
       <c r="R7">
-        <v>7.522910177152</v>
+        <v>8.856107655549</v>
       </c>
       <c r="S7">
-        <v>0.0001184591551772294</v>
+        <v>0.0004443380984066751</v>
       </c>
       <c r="T7">
-        <v>0.0001184591551772294</v>
+        <v>0.0004443380984066751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>25.409186</v>
       </c>
       <c r="I8">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J8">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>49.59320880890934</v>
+        <v>88.82778135688355</v>
       </c>
       <c r="R8">
-        <v>446.338879280184</v>
+        <v>799.450032211952</v>
       </c>
       <c r="S8">
-        <v>0.007028254401184202</v>
+        <v>0.04011086144166718</v>
       </c>
       <c r="T8">
-        <v>0.007028254401184202</v>
+        <v>0.04011086144166719</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>25.409186</v>
       </c>
       <c r="I9">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J9">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
         <v>533.5674262329278</v>
       </c>
       <c r="R9">
-        <v>4802.106836096349</v>
+        <v>4802.10683609635</v>
       </c>
       <c r="S9">
-        <v>0.07561615192514852</v>
+        <v>0.2409364365122403</v>
       </c>
       <c r="T9">
-        <v>0.07561615192514852</v>
+        <v>0.2409364365122404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>25.409186</v>
       </c>
       <c r="I10">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J10">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>2.236400798761556</v>
+        <v>2.814315794874222</v>
       </c>
       <c r="R10">
-        <v>20.127607188854</v>
+        <v>25.328842153868</v>
       </c>
       <c r="S10">
-        <v>0.000316938430365975</v>
+        <v>0.001270825739165527</v>
       </c>
       <c r="T10">
-        <v>0.000316938430365975</v>
+        <v>0.001270825739165527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>25.409186</v>
       </c>
       <c r="I11">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J11">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>371.516271401682</v>
+        <v>86.85354689278422</v>
       </c>
       <c r="R11">
-        <v>3343.646442615137</v>
+        <v>781.6819220350581</v>
       </c>
       <c r="S11">
-        <v>0.0526505731793127</v>
+        <v>0.03921938082790855</v>
       </c>
       <c r="T11">
-        <v>0.0526505731793127</v>
+        <v>0.03921938082790855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>25.409186</v>
       </c>
       <c r="I12">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J12">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>6.463529446579333</v>
+        <v>6.413416885301556</v>
       </c>
       <c r="R12">
-        <v>58.17176501921399</v>
+        <v>57.72075196771401</v>
       </c>
       <c r="S12">
-        <v>0.0009159989920221485</v>
+        <v>0.0028960272577386</v>
       </c>
       <c r="T12">
-        <v>0.0009159989920221485</v>
+        <v>0.0028960272577386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>25.409186</v>
       </c>
       <c r="I13">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J13">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>10.38533284569245</v>
+        <v>8.376304736230445</v>
       </c>
       <c r="R13">
-        <v>93.467995611232</v>
+        <v>75.386742626074</v>
       </c>
       <c r="S13">
-        <v>0.001471789445239287</v>
+        <v>0.003782384221871412</v>
       </c>
       <c r="T13">
-        <v>0.001471789445239287</v>
+        <v>0.003782384221871412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H14">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I14">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J14">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>2.194734717665333</v>
+        <v>0.4714630468426665</v>
       </c>
       <c r="R14">
-        <v>19.752612458988</v>
+        <v>4.243167421583999</v>
       </c>
       <c r="S14">
-        <v>0.0003110335932949764</v>
+        <v>0.0002128927308315236</v>
       </c>
       <c r="T14">
-        <v>0.0003110335932949764</v>
+        <v>0.0002128927308315236</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H15">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I15">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J15">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>23.61288939945278</v>
+        <v>2.831966763383333</v>
       </c>
       <c r="R15">
-        <v>212.516004595075</v>
+        <v>25.48770087044999</v>
       </c>
       <c r="S15">
-        <v>0.003346373381199037</v>
+        <v>0.001278796168476776</v>
       </c>
       <c r="T15">
-        <v>0.003346373381199037</v>
+        <v>0.001278796168476777</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H16">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I16">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J16">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.09897134292255555</v>
+        <v>0.01493728515066666</v>
       </c>
       <c r="R16">
-        <v>0.8907420863029999</v>
+        <v>0.134435566356</v>
       </c>
       <c r="S16">
-        <v>1.402602882920533E-05</v>
+        <v>6.745044915462512E-06</v>
       </c>
       <c r="T16">
-        <v>1.402602882920533E-05</v>
+        <v>6.745044915462514E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H17">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I17">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J17">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>16.441357165749</v>
+        <v>0.4609845841206666</v>
       </c>
       <c r="R17">
-        <v>147.972214491741</v>
+        <v>4.148861257086</v>
       </c>
       <c r="S17">
-        <v>0.0023300375925838</v>
+        <v>0.0002081611011550469</v>
       </c>
       <c r="T17">
-        <v>0.0023300375925838</v>
+        <v>0.0002081611011550469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H18">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I18">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J18">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.2860418354803333</v>
+        <v>0.03403990304866666</v>
       </c>
       <c r="R18">
-        <v>2.574376519323</v>
+        <v>0.306359127438</v>
       </c>
       <c r="S18">
-        <v>4.053730011469433E-05</v>
+        <v>1.537097756823627E-05</v>
       </c>
       <c r="T18">
-        <v>4.053730011469433E-05</v>
+        <v>1.537097756823627E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H19">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I19">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J19">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.4596002375804445</v>
+        <v>0.04445814239533333</v>
       </c>
       <c r="R19">
-        <v>4.136402138224</v>
+        <v>0.4001232815579999</v>
       </c>
       <c r="S19">
-        <v>6.51336638652784E-05</v>
+        <v>2.007541292074537E-05</v>
       </c>
       <c r="T19">
-        <v>6.513366386527838E-05</v>
+        <v>2.007541292074537E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H20">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I20">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J20">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N20">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q20">
-        <v>302.7437106938773</v>
+        <v>167.3854242795742</v>
       </c>
       <c r="R20">
-        <v>2724.693396244896</v>
+        <v>1506.468818516168</v>
       </c>
       <c r="S20">
-        <v>0.04290425782517286</v>
+        <v>0.07558416362621881</v>
       </c>
       <c r="T20">
-        <v>0.04290425782517286</v>
+        <v>0.07558416362621881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H21">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I21">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J21">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>188.990975</v>
       </c>
       <c r="O21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q21">
-        <v>3257.183521751044</v>
+        <v>1005.444565399336</v>
       </c>
       <c r="R21">
-        <v>29314.6516957594</v>
+        <v>9049.001088594025</v>
       </c>
       <c r="S21">
-        <v>0.4616017993596509</v>
+        <v>0.4540161538874775</v>
       </c>
       <c r="T21">
-        <v>0.4616017993596509</v>
+        <v>0.4540161538874775</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H22">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I22">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J22">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N22">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q22">
-        <v>13.65219740115289</v>
+        <v>5.303244505106889</v>
       </c>
       <c r="R22">
-        <v>122.869776610376</v>
+        <v>47.729200545962</v>
       </c>
       <c r="S22">
-        <v>0.001934763222121874</v>
+        <v>0.002394720461169563</v>
       </c>
       <c r="T22">
-        <v>0.001934763222121874</v>
+        <v>0.002394720461169563</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H23">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I23">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J23">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N23">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q23">
-        <v>2267.935818000407</v>
+        <v>163.6652134586719</v>
       </c>
       <c r="R23">
-        <v>20411.42236200367</v>
+        <v>1472.986921128047</v>
       </c>
       <c r="S23">
-        <v>0.3214075127883464</v>
+        <v>0.07390427408612686</v>
       </c>
       <c r="T23">
-        <v>0.3214075127883464</v>
+        <v>0.07390427408612686</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H24">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I24">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J24">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N24">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O24">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P24">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q24">
-        <v>39.45687193535733</v>
+        <v>12.08532387086122</v>
       </c>
       <c r="R24">
-        <v>355.111847418216</v>
+        <v>108.767914837751</v>
       </c>
       <c r="S24">
-        <v>0.005591752187384531</v>
+        <v>0.005457220070759117</v>
       </c>
       <c r="T24">
-        <v>0.005591752187384531</v>
+        <v>0.005457220070759117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>51.70379466666666</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H25">
-        <v>155.111384</v>
+        <v>47.880599</v>
       </c>
       <c r="I25">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J25">
-        <v>0.8424246824416952</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N25">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q25">
-        <v>63.39767637562311</v>
+        <v>15.78415334427678</v>
       </c>
       <c r="R25">
-        <v>570.5790873806079</v>
+        <v>142.057380098491</v>
       </c>
       <c r="S25">
-        <v>0.008984597059018655</v>
+        <v>0.007127454700491079</v>
       </c>
       <c r="T25">
-        <v>0.008984597059018653</v>
+        <v>0.007127454700491079</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H26">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I26">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J26">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N26">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q26">
-        <v>0.8486058267266666</v>
+        <v>3.427484821091555</v>
       </c>
       <c r="R26">
-        <v>7.637452440540001</v>
+        <v>30.847363389824</v>
       </c>
       <c r="S26">
-        <v>0.0001202627895997484</v>
+        <v>0.00154770688462734</v>
       </c>
       <c r="T26">
-        <v>0.0001202627895997484</v>
+        <v>0.00154770688462734</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H27">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I27">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J27">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>188.990975</v>
       </c>
       <c r="O27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q27">
-        <v>9.130049007263889</v>
+        <v>20.58808884457778</v>
       </c>
       <c r="R27">
-        <v>82.17044106537499</v>
+        <v>185.2927996012</v>
       </c>
       <c r="S27">
-        <v>0.001293893028087389</v>
+        <v>0.00929670837635526</v>
       </c>
       <c r="T27">
-        <v>0.001293893028087389</v>
+        <v>0.00929670837635526</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H28">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I28">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J28">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N28">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q28">
-        <v>0.03826779501277777</v>
+        <v>0.1085924304462222</v>
       </c>
       <c r="R28">
-        <v>0.3444101551149999</v>
+        <v>0.977331874016</v>
       </c>
       <c r="S28">
-        <v>5.423238487319917E-06</v>
+        <v>4.903573932283922E-05</v>
       </c>
       <c r="T28">
-        <v>5.423238487319917E-06</v>
+        <v>4.903573932283922E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H29">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I29">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J29">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N29">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q29">
-        <v>6.357138007544999</v>
+        <v>3.351307542366222</v>
       </c>
       <c r="R29">
-        <v>57.21424206790499</v>
+        <v>30.161767881296</v>
       </c>
       <c r="S29">
-        <v>0.0009009214014084303</v>
+        <v>0.001513308454031862</v>
       </c>
       <c r="T29">
-        <v>0.0009009214014084303</v>
+        <v>0.001513308454031862</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H30">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I30">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J30">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N30">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O30">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P30">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q30">
-        <v>0.1105995938016667</v>
+        <v>0.2474663747075556</v>
       </c>
       <c r="R30">
-        <v>0.9953963442149999</v>
+        <v>2.227197372368</v>
       </c>
       <c r="S30">
-        <v>1.567396223343596E-05</v>
+        <v>0.0001117453269207117</v>
       </c>
       <c r="T30">
-        <v>1.567396223343596E-05</v>
+        <v>0.0001117453269207117</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1449283333333333</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H31">
-        <v>0.434785</v>
+        <v>0.980432</v>
       </c>
       <c r="I31">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J31">
-        <v>0.002361358696634494</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N31">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q31">
-        <v>0.1777068711022222</v>
+        <v>0.3232058360764444</v>
       </c>
       <c r="R31">
-        <v>1.59936183992</v>
+        <v>2.908852524688</v>
       </c>
       <c r="S31">
-        <v>2.518427681816975E-05</v>
+        <v>0.0001459460577532012</v>
       </c>
       <c r="T31">
-        <v>2.518427681816974E-05</v>
+        <v>0.0001459460577532012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.026029</v>
+      </c>
+      <c r="I32">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J32">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.48767733333333</v>
+      </c>
+      <c r="N32">
+        <v>31.463032</v>
+      </c>
+      <c r="O32">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="P32">
+        <v>0.1222087640673552</v>
+      </c>
+      <c r="Q32">
+        <v>0.09099458443644443</v>
+      </c>
+      <c r="R32">
+        <v>0.818951259928</v>
+      </c>
+      <c r="S32">
+        <v>4.108929788089847E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.108929788089847E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.026029</v>
+      </c>
+      <c r="I33">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J33">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>62.99699166666667</v>
+      </c>
+      <c r="N33">
+        <v>188.990975</v>
+      </c>
+      <c r="O33">
+        <v>0.7340790765058636</v>
+      </c>
+      <c r="P33">
+        <v>0.7340790765058635</v>
+      </c>
+      <c r="Q33">
+        <v>0.5465828986972222</v>
+      </c>
+      <c r="R33">
+        <v>4.919246088275</v>
+      </c>
+      <c r="S33">
+        <v>0.0002468136722670731</v>
+      </c>
+      <c r="T33">
+        <v>0.0002468136722670731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.026029</v>
+      </c>
+      <c r="I34">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J34">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3322793333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.996838</v>
+      </c>
+      <c r="O34">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="P34">
+        <v>0.003871919907635547</v>
+      </c>
+      <c r="Q34">
+        <v>0.002882966255777777</v>
+      </c>
+      <c r="R34">
+        <v>0.025946696302</v>
+      </c>
+      <c r="S34">
+        <v>1.301825377827511E-06</v>
+      </c>
+      <c r="T34">
+        <v>1.301825377827511E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.026029</v>
+      </c>
+      <c r="I35">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J35">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10.25458433333333</v>
+      </c>
+      <c r="N35">
+        <v>30.763753</v>
+      </c>
+      <c r="O35">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="P35">
+        <v>0.1194926233493133</v>
+      </c>
+      <c r="Q35">
+        <v>0.08897219187077778</v>
+      </c>
+      <c r="R35">
+        <v>0.8007497268370001</v>
+      </c>
+      <c r="S35">
+        <v>4.017607110946536E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.017607110946536E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.026029</v>
+      </c>
+      <c r="I36">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J36">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7572163333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.271649</v>
+      </c>
+      <c r="O36">
+        <v>0.008823543029319092</v>
+      </c>
+      <c r="P36">
+        <v>0.00882354302931909</v>
+      </c>
+      <c r="Q36">
+        <v>0.006569861313444445</v>
+      </c>
+      <c r="R36">
+        <v>0.059128751821</v>
+      </c>
+      <c r="S36">
+        <v>2.966670931200945E-06</v>
+      </c>
+      <c r="T36">
+        <v>2.966670931200945E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.008676333333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.026029</v>
+      </c>
+      <c r="I37">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="J37">
+        <v>0.0003362221866367304</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.9889696666666666</v>
+      </c>
+      <c r="N37">
+        <v>2.966909</v>
+      </c>
+      <c r="O37">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="P37">
+        <v>0.01152407314051338</v>
+      </c>
+      <c r="Q37">
+        <v>0.008580630484555554</v>
+      </c>
+      <c r="R37">
+        <v>0.07722567436099999</v>
+      </c>
+      <c r="S37">
+        <v>3.874649070265021E-06</v>
+      </c>
+      <c r="T37">
+        <v>3.874649070265021E-06</v>
       </c>
     </row>
   </sheetData>
